--- a/white_internet.xlsx
+++ b/white_internet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="740">
   <si>
     <t xml:space="preserve">@aliasghar_1999</t>
   </si>
@@ -2904,6 +2904,18 @@
   </si>
   <si>
     <t xml:space="preserve">mostafa.pournasiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Masoumeh_Zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fereshte_aminy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمنای وصال</t>
   </si>
 </sst>
 </file>
@@ -2997,7 +3009,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3028,6 +3040,14 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3161,10 +3181,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F290"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A259" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C290" activeCellId="0" sqref="C290"/>
+      <selection pane="topLeft" activeCell="C289" activeCellId="0" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8644,7 +8664,7 @@
       <c r="E288" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F288" s="0" t="n">
+      <c r="F288" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8664,7 +8684,7 @@
       <c r="E289" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="F289" s="0" t="n">
+      <c r="F289" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8684,7 +8704,47 @@
       <c r="E290" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F290" s="0" t="n">
+      <c r="F290" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A291" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="C291" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D291" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E291" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="F291" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B292" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="C292" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D292" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F292" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/white_internet.xlsx
+++ b/white_internet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="1042">
   <si>
     <t xml:space="preserve">@aliasghar_1999</t>
   </si>
@@ -1298,32 +1298,6 @@
   </si>
   <si>
     <t xml:space="preserve">May 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@eelkhan1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ایلجـــــان </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">| EELJAAN</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2010</t>
   </si>
   <si>
     <t xml:space="preserve">@ejei_org</t>
@@ -2773,6 +2747,9 @@
     <t xml:space="preserve">@FXMNDLSN</t>
   </si>
   <si>
+    <t xml:space="preserve">مندلسون</t>
+  </si>
+  <si>
     <t xml:space="preserve">@azof_110</t>
   </si>
   <si>
@@ -2916,6 +2893,918 @@
   </si>
   <si>
     <t xml:space="preserve">تمنای وصال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Fayyazzaahed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fayyaz Zahed(فیاض زاهد)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Dokhi_sag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رقیب زید قبلیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@sara_sabzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sara.sabzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@araghchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seyed Abbas Araghchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@AmiinMosavii94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amin Mosavi 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@parham_rsg11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rohina_313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سـادات بانـو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@kyvanmhsni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کیوان محسنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@eqbali62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابوالفضل اقبالی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mahii_to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نگین بابام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@the_pesar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@odinhes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HesamOdin Abarghoei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@kambiznorozzad1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kambiznorozzadeh_1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mona_shekarriz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mona shekarriz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@art0rias_ir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin|برلین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rahe_mandegar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سعید صدوقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@firetanha125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد تنها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@laili_dideban63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیلا دیده بان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@NoOoNSaAaD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نون‌صاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zirshalvar32329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zirshalvari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zagrostabar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از تبار زاگرس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mehranrajaabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MhrnRjbiFan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ehsanho5124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سیداحسان حسینی </t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mhsn_hooshmand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محسن هوشمند </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@samousavi9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.Abbas Mousavi | سیدعباس موسوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hellboy1178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hell boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hanih38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اِچ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@khandoozi_se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سید احسان خاندوزی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@k1esteghlal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@padamediagharb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پدامدیاغرب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@akhaye_ebi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آخای اِبی ♞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@karmalachaab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قادر بغلانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@6womid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">𝑜𝑚𝑖𝑑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@roshana_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روشنا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@khaton1212454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@khanomnadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khanom nadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zohreh_s47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زهره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@2mohein002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد حسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@aamini1362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باران ایران</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@maryam__20021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khanomnaz Mohammadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zahraakhbari65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@puolil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آقای خآث</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rstmyanmhtab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهتاب رستمیان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@nashenas248781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناشناس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@whitemoon_notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whitemoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@journalist13655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behrooz azizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@a_s_zabihpoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آمنه سادات ذبیح پور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@dr_f_mohammadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatemeh Mohammadi | فاطمه محمدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@smksh97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شیخ شبانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mahva__1370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زهرا بانو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@s_k_sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAJJAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@kuroshyar66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کوروش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zahraaliakbari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zahra aliakbari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ahmadmehri1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad mehri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rouhanioffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rouhanioffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jamarannews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پایگاه خبری جماران</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ahdiyeasghari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atiyeh akbari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hanibouraghi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hani Bouraghi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rezasaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رضا ساکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mamane_bacheha_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مــامــانِ بـچــّه ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hachalhaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هچل هف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@saeeedmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سعيد مون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ghlamy_shr72711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سحر بانو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@sahb_ya89019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سیده کوثر موسوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mohammad784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammad Javad Shakouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@khate_energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خط انرژی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@shid_tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shid TV | شید تی‌وی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hamiidsadegh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‏حمید صادقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@m_ghanbariha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهدی قنبری‌ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@final__battle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final_battle313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@sara_0s057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mehraaab_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محراب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@samieh128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somaye /سمیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@nabhan_hmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نبهان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hajahmad128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حاج احـمـد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zhrarez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زَهْرٰا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mahgol_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماهگل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hasanein_hadad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حسنین حداد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ebrahimiavval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حسین ابراهیمی </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@sadatmim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سادات موسوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@haj_mehrdad313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حاج مهرداد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@banookashaiii_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بانوکاشانی </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@saeedy1369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hozhabr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@abbashanachi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سیـدعبـاس حَنـاچـی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hemmati_ir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdolnaser Hemmati عبدالناصر همتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mohamadaref313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد عارف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ghrybh16655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دشت امید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@tajik32a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@a_bygy33433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یکتا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@m_gorji2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصطفی گرجی </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@amirezaa_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امیررضا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mahhddiie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahdie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ev_sadat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انسیه واحدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@gelareh_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلاره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mary_shemirani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مَـــریـَــم شــِمیـــرانی 𓃠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@behrouz372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@behrangnejati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behrang nejati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@parastoobr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parastoo BahramiRad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@naghme1362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نغمه ی نرگس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zeinab016488637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeinab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@phistorysin2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اندیشکده مطالعات تاریخ پهلوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@azadicdl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azad_icdl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@energy_press24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy press انرژی پرس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@sedsadjad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سید سجاد حسینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fahimesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fahimesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jeihaniesf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حمیدرضا جیهانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@leyliyazdi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیلی یزدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@khanoumhoseini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خانم حسینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mohamdianleyla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیلا محمدیان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@maryamjali696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARYAM Jalilvand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@kharamidehsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد احسان خرامید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@e_fathinya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مانشت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@sina_mtii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sina Mojtahedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@japanstudies_ir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مركز مطالعات ژاپن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@sajedironak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روناک ساجدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@daniel_eiliy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jodi_1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@OGBESztDY9kvyho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یحیی (اسم ایمانی)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@tavabinam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سید مصطفی موسوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@IGI420TEH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti IslamicRepublic IGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hssaremi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حسین صارمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@alwaysagooner0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--coyg--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fateme_gh_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاطمه قاسمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@maryamy5348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مریم سعادت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@itsshiiima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شیما بهرامی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@charchoobshenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charchoobshenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ehsan_rastgar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احسان رستگار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@unknown23guy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاهیار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@meysame_tamaarr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میثم تمار(جدید)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@faezeh_nazariii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فائزه نظری </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@samereh_63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سامره عاشوری چیرانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@charlottelvf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">𓂆 شارلوت 𓂆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@geesa_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@aseyedp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سید پویان حسین‌پور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mohsenpnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محسن پناهی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@marhami91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجتبی ارحامی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@amirbagh3ri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amir Bagheri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@msshryfy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سید مسعود شریفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mirjavadbayat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جواد میرگلوی‌بیات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rezamoazenzadeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رضا مؤذّن زاده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mshekari72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد شکاری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fresh_sadegh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fereshteh Sadeghi فرشته صادقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@shahinamini99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاهین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@aminarabshahi65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امین عربشاهی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hamedshams55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حامد شمس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@izadifoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فواد ایزدی Foad Izadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@gandombanoooo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گندم بانوی ایرانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@naf_as7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نَفَس دُخت</t>
   </si>
 </sst>
 </file>
@@ -3181,10 +4070,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F439"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A259" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C289" activeCellId="0" sqref="C289"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A419" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F439" activeCellId="0" sqref="F439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5503,13 +6392,13 @@
         <v>333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="F120" s="1" t="n">
         <v>1</v>
@@ -5517,19 +6406,19 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="C121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C121" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E121" s="3" t="s">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="F121" s="1" t="n">
         <v>1</v>
@@ -5539,17 +6428,17 @@
       <c r="A122" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>338</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>339</v>
+        <v>66</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>339</v>
+        <v>66</v>
       </c>
       <c r="F122" s="1" t="n">
         <v>1</v>
@@ -5557,19 +6446,19 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="C123" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F123" s="1" t="n">
         <v>1</v>
@@ -5577,19 +6466,19 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="C124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="E124" s="3" t="s">
-        <v>74</v>
+        <v>343</v>
       </c>
       <c r="F124" s="1" t="n">
         <v>1</v>
@@ -5599,17 +6488,17 @@
       <c r="A125" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="6" t="s">
         <v>345</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>346</v>
+        <v>74</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>346</v>
+        <v>74</v>
       </c>
       <c r="F125" s="1" t="n">
         <v>1</v>
@@ -5617,19 +6506,19 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="C126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E126" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F126" s="1" t="n">
         <v>1</v>
@@ -5646,10 +6535,10 @@
         <v>1</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="F127" s="1" t="n">
         <v>1</v>
@@ -5657,19 +6546,19 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="C128" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="F128" s="1" t="n">
         <v>1</v>
@@ -5677,19 +6566,19 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="C129" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="C129" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="F129" s="1" t="n">
         <v>1</v>
@@ -5703,10 +6592,10 @@
         <v>357</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>358</v>
@@ -5719,17 +6608,17 @@
       <c r="A131" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>360</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>361</v>
+        <v>63</v>
       </c>
       <c r="F131" s="1" t="n">
         <v>1</v>
@@ -5737,19 +6626,19 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="C132" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="C132" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F132" s="1" t="n">
         <v>1</v>
@@ -5759,17 +6648,14 @@
       <c r="A133" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="5" t="s">
         <v>365</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>366</v>
+        <v>113</v>
       </c>
       <c r="F133" s="1" t="n">
         <v>1</v>
@@ -5777,16 +6663,16 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="F134" s="1" t="n">
         <v>1</v>
@@ -5794,16 +6680,19 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>370</v>
-      </c>
       <c r="C135" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>225</v>
+        <v>17</v>
       </c>
       <c r="F135" s="1" t="n">
         <v>1</v>
@@ -5811,19 +6700,19 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>372</v>
-      </c>
       <c r="C136" s="1" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="F136" s="1" t="n">
         <v>1</v>
@@ -5831,19 +6720,19 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>374</v>
-      </c>
       <c r="C137" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>274</v>
+        <v>6</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="F137" s="1" t="n">
         <v>1</v>
@@ -5851,19 +6740,19 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="C138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F138" s="1" t="n">
         <v>1</v>
@@ -5871,19 +6760,19 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="C139" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>13</v>
+        <v>280</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F139" s="1" t="n">
         <v>1</v>
@@ -5891,19 +6780,19 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>380</v>
-      </c>
       <c r="C140" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="F140" s="1" t="n">
         <v>1</v>
@@ -5911,19 +6800,19 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="C141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="F141" s="1" t="n">
         <v>1</v>
@@ -5931,19 +6820,16 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="C142" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="C142" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="F142" s="1" t="n">
         <v>1</v>
@@ -5953,14 +6839,17 @@
       <c r="A143" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="6" t="s">
         <v>386</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>387</v>
+        <v>267</v>
       </c>
       <c r="F143" s="1" t="n">
         <v>1</v>
@@ -5968,19 +6857,19 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="C144" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C144" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="E144" s="3" t="s">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="F144" s="1" t="n">
         <v>1</v>
@@ -5994,13 +6883,13 @@
         <v>391</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>392</v>
+        <v>183</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F145" s="1" t="n">
         <v>1</v>
@@ -6008,19 +6897,19 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="C146" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="F146" s="1" t="n">
         <v>1</v>
@@ -6028,19 +6917,19 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>396</v>
-      </c>
       <c r="C147" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="F147" s="1" t="n">
         <v>1</v>
@@ -6048,19 +6937,19 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>398</v>
-      </c>
       <c r="C148" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="F148" s="1" t="n">
         <v>1</v>
@@ -6068,19 +6957,19 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="C149" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="C149" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="F149" s="1" t="n">
         <v>1</v>
@@ -6090,14 +6979,14 @@
       <c r="A150" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="5" t="s">
         <v>402</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>403</v>
@@ -6114,13 +7003,10 @@
         <v>405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>406</v>
+        <v>63</v>
       </c>
       <c r="F151" s="1" t="n">
         <v>1</v>
@@ -6128,16 +7014,19 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="C152" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="C152" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F152" s="1" t="n">
         <v>1</v>
@@ -6151,10 +7040,7 @@
         <v>410</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>411</v>
@@ -6167,14 +7053,14 @@
       <c r="A154" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="6" t="s">
         <v>413</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>414</v>
+        <v>231</v>
       </c>
       <c r="F154" s="1" t="n">
         <v>1</v>
@@ -6182,16 +7068,19 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>416</v>
-      </c>
       <c r="C155" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="F155" s="1" t="n">
         <v>1</v>
@@ -6199,19 +7088,19 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B156" s="5" t="s">
-        <v>418</v>
-      </c>
       <c r="C156" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="F156" s="1" t="n">
         <v>1</v>
@@ -6219,19 +7108,16 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>420</v>
-      </c>
       <c r="C157" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="F157" s="1" t="n">
         <v>1</v>
@@ -6239,16 +7125,19 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="C158" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C158" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E158" s="3" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="F158" s="1" t="n">
         <v>1</v>
@@ -6258,17 +7147,14 @@
       <c r="A159" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="5" t="s">
         <v>424</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D159" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="F159" s="1" t="n">
         <v>1</v>
@@ -6299,10 +7185,13 @@
         <v>430</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>431</v>
+        <v>3</v>
       </c>
       <c r="F161" s="1" t="n">
         <v>1</v>
@@ -6310,19 +7199,13 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B162" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C162" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="E162" s="3" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="F162" s="1" t="n">
         <v>1</v>
@@ -6330,13 +7213,16 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="C163" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="F163" s="1" t="n">
         <v>1</v>
@@ -6380,11 +7266,14 @@
       <c r="A166" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="6" t="s">
         <v>443</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>444</v>
@@ -6397,14 +7286,14 @@
       <c r="A167" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>446</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>46</v>
+        <v>447</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>447</v>
@@ -6417,17 +7306,14 @@
       <c r="A168" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="6" t="s">
         <v>449</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>450</v>
+        <v>20</v>
       </c>
       <c r="F168" s="1" t="n">
         <v>1</v>
@@ -6435,16 +7321,19 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>452</v>
-      </c>
       <c r="C169" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="F169" s="1" t="n">
         <v>1</v>
@@ -6452,19 +7341,19 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>454</v>
-      </c>
       <c r="C170" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="F170" s="1" t="n">
         <v>1</v>
@@ -6472,19 +7361,19 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="C171" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C171" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="E171" s="3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F171" s="1" t="n">
         <v>1</v>
@@ -6494,17 +7383,14 @@
       <c r="A172" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="5" t="s">
         <v>458</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>218</v>
+        <v>336</v>
       </c>
       <c r="F172" s="1" t="n">
         <v>1</v>
@@ -6512,16 +7398,16 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>461</v>
       </c>
       <c r="C173" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>339</v>
+        <v>461</v>
       </c>
       <c r="F173" s="1" t="n">
         <v>1</v>
@@ -6535,7 +7421,10 @@
         <v>463</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>464</v>
@@ -6548,14 +7437,14 @@
       <c r="A175" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="5" t="s">
         <v>466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>467</v>
+        <v>9</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>467</v>
@@ -6572,13 +7461,10 @@
         <v>469</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F176" s="1" t="n">
         <v>1</v>
@@ -6586,16 +7472,19 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="C177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E177" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="C177" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="F177" s="1" t="n">
         <v>1</v>
@@ -6605,17 +7494,17 @@
       <c r="A178" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="6" t="s">
         <v>474</v>
       </c>
       <c r="C178" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>475</v>
+        <v>204</v>
       </c>
       <c r="F178" s="1" t="n">
         <v>1</v>
@@ -6623,19 +7512,16 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>477</v>
-      </c>
       <c r="C179" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="F179" s="1" t="n">
         <v>1</v>
@@ -6643,16 +7529,19 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B180" s="6" t="s">
-        <v>479</v>
-      </c>
       <c r="C180" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="F180" s="1" t="n">
         <v>1</v>
@@ -6660,19 +7549,19 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="C181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C181" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="E181" s="3" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="F181" s="1" t="n">
         <v>1</v>
@@ -6682,17 +7571,17 @@
       <c r="A182" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="5" t="s">
         <v>483</v>
       </c>
       <c r="C182" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="F182" s="1" t="n">
         <v>1</v>
@@ -6700,19 +7589,16 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="C183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="C183" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>467</v>
       </c>
       <c r="F183" s="1" t="n">
         <v>1</v>
@@ -6729,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>489</v>
+        <v>126</v>
       </c>
       <c r="F184" s="1" t="n">
         <v>1</v>
@@ -6737,16 +7623,19 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>490</v>
+        <v>254</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>491</v>
+        <v>255</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="F185" s="1" t="n">
         <v>1</v>
@@ -6754,19 +7643,19 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>255</v>
+        <v>489</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F186" s="1" t="n">
         <v>1</v>
@@ -6774,19 +7663,19 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B187" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B187" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="C187" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="F187" s="1" t="n">
         <v>1</v>
@@ -6794,19 +7683,16 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B188" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="C188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="C188" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="F188" s="1" t="n">
         <v>1</v>
@@ -6823,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>498</v>
+        <v>52</v>
       </c>
       <c r="F189" s="1" t="n">
         <v>1</v>
@@ -6831,16 +7717,16 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="C190" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>52</v>
+        <v>500</v>
       </c>
       <c r="F190" s="1" t="n">
         <v>1</v>
@@ -6867,7 +7753,7 @@
       <c r="A192" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="6" t="s">
         <v>505</v>
       </c>
       <c r="C192" s="1" t="n">
@@ -6884,14 +7770,17 @@
       <c r="A193" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" s="5" t="s">
         <v>508</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>509</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F193" s="1" t="n">
         <v>1</v>
@@ -6901,17 +7790,17 @@
       <c r="A194" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="6" t="s">
         <v>511</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>506</v>
+        <v>260</v>
       </c>
       <c r="F194" s="1" t="n">
         <v>1</v>
@@ -6919,19 +7808,16 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>514</v>
-      </c>
       <c r="C195" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>260</v>
+        <v>411</v>
       </c>
       <c r="F195" s="1" t="n">
         <v>1</v>
@@ -6939,16 +7825,16 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B196" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="C196" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>414</v>
+        <v>516</v>
       </c>
       <c r="F196" s="1" t="n">
         <v>1</v>
@@ -6958,14 +7844,17 @@
       <c r="A197" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="6" t="s">
         <v>518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>519</v>
+        <v>130</v>
       </c>
       <c r="F197" s="1" t="n">
         <v>1</v>
@@ -6973,19 +7862,16 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B198" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B198" s="6" t="s">
-        <v>521</v>
-      </c>
       <c r="C198" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="F198" s="1" t="n">
         <v>1</v>
@@ -6993,16 +7879,19 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="C199" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E199" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="C199" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F199" s="1" t="n">
         <v>1</v>
@@ -7012,17 +7901,14 @@
       <c r="A200" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="5" t="s">
         <v>525</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>526</v>
+        <v>328</v>
       </c>
       <c r="F200" s="1" t="n">
         <v>1</v>
@@ -7030,16 +7916,16 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B201" s="5" t="s">
         <v>527</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>528</v>
       </c>
       <c r="C201" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>328</v>
+        <v>528</v>
       </c>
       <c r="F201" s="1" t="n">
         <v>1</v>
@@ -7083,11 +7969,14 @@
       <c r="A204" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="6" t="s">
         <v>536</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>537</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>537</v>
@@ -7104,13 +7993,13 @@
         <v>539</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>540</v>
+        <v>170</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>540</v>
+        <v>186</v>
       </c>
       <c r="F205" s="1" t="n">
         <v>1</v>
@@ -7118,19 +8007,16 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B206" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>542</v>
-      </c>
       <c r="C206" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="F206" s="1" t="n">
         <v>1</v>
@@ -7138,16 +8024,16 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B207" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="C207" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="F207" s="1" t="n">
         <v>1</v>
@@ -7155,16 +8041,16 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B208" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>546</v>
       </c>
       <c r="C208" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="F208" s="1" t="n">
         <v>1</v>
@@ -7172,16 +8058,16 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="C209" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>89</v>
+        <v>548</v>
       </c>
       <c r="F209" s="1" t="n">
         <v>1</v>
@@ -7195,10 +8081,13 @@
         <v>550</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>551</v>
+        <v>336</v>
       </c>
       <c r="F210" s="1" t="n">
         <v>1</v>
@@ -7206,19 +8095,16 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>553</v>
-      </c>
       <c r="C211" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>339</v>
+        <v>180</v>
       </c>
       <c r="F211" s="1" t="n">
         <v>1</v>
@@ -7226,19 +8112,22 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B212" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="C212" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E212" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C212" s="1" t="n">
+      <c r="F212" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F212" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7249,10 +8138,7 @@
         <v>557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>558</v>
@@ -7265,31 +8151,31 @@
       <c r="A214" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="6" t="s">
         <v>560</v>
       </c>
       <c r="C214" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>561</v>
+        <v>247</v>
       </c>
       <c r="F214" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>563</v>
       </c>
       <c r="C215" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="F215" s="1" t="n">
         <v>1</v>
@@ -7297,16 +8183,16 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B216" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="C216" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F216" s="1" t="n">
         <v>1</v>
@@ -7314,16 +8200,19 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B217" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="B217" s="5" t="s">
-        <v>567</v>
-      </c>
       <c r="C217" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>52</v>
+        <v>422</v>
       </c>
       <c r="F217" s="1" t="n">
         <v>1</v>
@@ -7331,19 +8220,16 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B218" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="B218" s="5" t="s">
-        <v>569</v>
-      </c>
       <c r="C218" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>425</v>
+        <v>49</v>
       </c>
       <c r="F218" s="1" t="n">
         <v>1</v>
@@ -7351,16 +8237,19 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B219" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B219" s="5" t="s">
-        <v>571</v>
-      </c>
       <c r="C219" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>49</v>
+        <v>516</v>
       </c>
       <c r="F219" s="1" t="n">
         <v>1</v>
@@ -7368,19 +8257,19 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B220" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B220" s="5" t="s">
-        <v>573</v>
-      </c>
       <c r="C220" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>519</v>
+        <v>186</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>519</v>
+        <v>186</v>
       </c>
       <c r="F220" s="1" t="n">
         <v>1</v>
@@ -7388,19 +8277,16 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B221" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B221" s="6" t="s">
-        <v>575</v>
-      </c>
       <c r="C221" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="F221" s="1" t="n">
         <v>1</v>
@@ -7408,16 +8294,16 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="B222" s="5" t="s">
-        <v>577</v>
-      </c>
       <c r="C222" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="F222" s="1" t="n">
         <v>1</v>
@@ -7425,16 +8311,16 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="B223" s="5" t="s">
-        <v>579</v>
-      </c>
       <c r="C223" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>277</v>
+        <v>348</v>
       </c>
       <c r="F223" s="1" t="n">
         <v>1</v>
@@ -7442,16 +8328,16 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B224" s="5" t="s">
         <v>580</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>581</v>
       </c>
       <c r="C224" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>351</v>
+        <v>486</v>
       </c>
       <c r="F224" s="1" t="n">
         <v>1</v>
@@ -7459,16 +8345,19 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="B225" s="5" t="s">
-        <v>583</v>
-      </c>
       <c r="C225" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="F225" s="1" t="n">
         <v>1</v>
@@ -7476,19 +8365,16 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>585</v>
-      </c>
       <c r="C226" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F226" s="1" t="n">
         <v>1</v>
@@ -7496,16 +8382,19 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="C227" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="C227" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E227" s="3" t="s">
-        <v>52</v>
+        <v>588</v>
       </c>
       <c r="F227" s="1" t="n">
         <v>1</v>
@@ -7513,16 +8402,13 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B228" s="6" t="s">
         <v>589</v>
       </c>
+      <c r="B228" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C228" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>591</v>
@@ -7542,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>594</v>
+        <v>486</v>
       </c>
       <c r="F229" s="1" t="n">
         <v>1</v>
@@ -7550,16 +8436,19 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B230" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="C230" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C230" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E230" s="3" t="s">
-        <v>489</v>
+        <v>596</v>
       </c>
       <c r="F230" s="1" t="n">
         <v>1</v>
@@ -7573,10 +8462,10 @@
         <v>598</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>599</v>
+        <v>34</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>599</v>
@@ -7593,13 +8482,13 @@
         <v>601</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>602</v>
+        <v>151</v>
       </c>
       <c r="F232" s="1" t="n">
         <v>1</v>
@@ -7607,19 +8496,19 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>604</v>
-      </c>
       <c r="C233" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F233" s="1" t="n">
         <v>1</v>
@@ -7627,19 +8516,19 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="B234" s="6" t="s">
-        <v>606</v>
-      </c>
       <c r="C234" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="F234" s="1" t="n">
         <v>1</v>
@@ -7647,19 +8536,19 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="C235" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C235" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="E235" s="3" t="s">
-        <v>83</v>
+        <v>608</v>
       </c>
       <c r="F235" s="1" t="n">
         <v>1</v>
@@ -7669,17 +8558,14 @@
       <c r="A236" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" s="5" t="s">
         <v>610</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>611</v>
+        <v>35</v>
       </c>
       <c r="F236" s="1" t="n">
         <v>1</v>
@@ -7687,16 +8573,19 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="B237" s="5" t="s">
-        <v>613</v>
-      </c>
       <c r="C237" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>35</v>
+        <v>355</v>
       </c>
       <c r="F237" s="1" t="n">
         <v>1</v>
@@ -7704,19 +8593,19 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B238" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="C238" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C238" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="E238" s="3" t="s">
-        <v>358</v>
+        <v>523</v>
       </c>
       <c r="F238" s="1" t="n">
         <v>1</v>
@@ -7730,13 +8619,10 @@
         <v>617</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D239" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E239" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="E239" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="F239" s="1" t="n">
         <v>1</v>
@@ -7746,14 +8632,17 @@
       <c r="A240" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" s="6" t="s">
         <v>620</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>621</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>621</v>
+        <v>441</v>
       </c>
       <c r="F240" s="1" t="n">
         <v>1</v>
@@ -7763,17 +8652,17 @@
       <c r="A241" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="5" t="s">
         <v>623</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>624</v>
+        <v>151</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>444</v>
+        <v>151</v>
       </c>
       <c r="F241" s="1" t="n">
         <v>1</v>
@@ -7781,19 +8670,19 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="C242" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E242" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="C242" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="F242" s="1" t="n">
         <v>1</v>
@@ -7803,17 +8692,14 @@
       <c r="A243" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" s="5" t="s">
         <v>628</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F243" s="1" t="n">
         <v>1</v>
@@ -7821,16 +8707,19 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="B244" s="5" t="s">
-        <v>631</v>
-      </c>
       <c r="C244" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>629</v>
+        <v>63</v>
       </c>
       <c r="F244" s="1" t="n">
         <v>1</v>
@@ -7838,19 +8727,19 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B245" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="C245" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E245" s="3" t="s">
         <v>633</v>
-      </c>
-      <c r="C245" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F245" s="1" t="n">
         <v>1</v>
@@ -7864,13 +8753,10 @@
         <v>635</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>636</v>
+        <v>358</v>
       </c>
       <c r="F246" s="1" t="n">
         <v>1</v>
@@ -7878,16 +8764,16 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B247" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>638</v>
       </c>
       <c r="C247" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="F247" s="1" t="n">
         <v>1</v>
@@ -7895,16 +8781,19 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B248" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B248" s="5" t="s">
-        <v>640</v>
-      </c>
       <c r="C248" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>621</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>267</v>
+        <v>621</v>
       </c>
       <c r="F248" s="1" t="n">
         <v>1</v>
@@ -7912,19 +8801,19 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B249" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="C249" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C249" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>624</v>
-      </c>
       <c r="E249" s="3" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="F249" s="1" t="n">
         <v>1</v>
@@ -7934,17 +8823,14 @@
       <c r="A250" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" s="5" t="s">
         <v>644</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>645</v>
+        <v>207</v>
       </c>
       <c r="F250" s="1" t="n">
         <v>1</v>
@@ -7952,16 +8838,19 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="B251" s="5" t="s">
-        <v>647</v>
-      </c>
       <c r="C251" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>207</v>
+        <v>461</v>
       </c>
       <c r="F251" s="1" t="n">
         <v>1</v>
@@ -7969,56 +8858,56 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B252" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="B252" s="5" t="s">
-        <v>649</v>
-      </c>
       <c r="C252" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D252" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E252" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E252" s="3" t="s">
-        <v>464</v>
-      </c>
       <c r="F252" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B253" s="5" t="s">
-        <v>651</v>
-      </c>
       <c r="C253" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="F253" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B254" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="B254" s="6" t="s">
-        <v>653</v>
-      </c>
       <c r="C254" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="F254" s="1" t="n">
         <v>1</v>
@@ -8026,19 +8915,19 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B255" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="B255" s="5" t="s">
+      <c r="C255" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D255" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C255" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="E255" s="3" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="F255" s="1" t="n">
         <v>1</v>
@@ -8052,13 +8941,13 @@
         <v>657</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>658</v>
+        <v>270</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="F256" s="1" t="n">
         <v>1</v>
@@ -8066,19 +8955,16 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="B257" s="5" t="s">
-        <v>660</v>
-      </c>
       <c r="C257" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>270</v>
+        <v>608</v>
       </c>
       <c r="F257" s="1" t="n">
         <v>1</v>
@@ -8086,16 +8972,19 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="C258" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D258" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="C258" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E258" s="3" t="s">
-        <v>611</v>
+        <v>77</v>
       </c>
       <c r="F258" s="1" t="n">
         <v>1</v>
@@ -8105,17 +8994,17 @@
       <c r="A259" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B259" s="5" t="s">
         <v>664</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D259" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E259" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="F259" s="1" t="n">
         <v>1</v>
@@ -8129,13 +9018,13 @@
         <v>667</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>70</v>
+        <v>441</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>668</v>
+        <v>626</v>
       </c>
       <c r="F260" s="1" t="n">
         <v>1</v>
@@ -8143,19 +9032,19 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B261" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="B261" s="5" t="s">
-        <v>670</v>
-      </c>
       <c r="C261" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>444</v>
+        <v>173</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>629</v>
+        <v>173</v>
       </c>
       <c r="F261" s="1" t="n">
         <v>1</v>
@@ -8163,19 +9052,19 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="B262" s="5" t="s">
-        <v>672</v>
-      </c>
       <c r="C262" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>173</v>
+        <v>655</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>173</v>
+        <v>655</v>
       </c>
       <c r="F262" s="1" t="n">
         <v>1</v>
@@ -8183,19 +9072,19 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B263" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="B263" s="6" t="s">
-        <v>674</v>
-      </c>
       <c r="C263" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>658</v>
+        <v>200</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>658</v>
+        <v>200</v>
       </c>
       <c r="F263" s="1" t="n">
         <v>1</v>
@@ -8203,19 +9092,19 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B264" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="C264" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D264" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="C264" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E264" s="3" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="F264" s="1" t="n">
         <v>1</v>
@@ -8225,17 +9114,17 @@
       <c r="A265" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" s="5" t="s">
         <v>678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>679</v>
+        <v>45</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>221</v>
+        <v>618</v>
       </c>
       <c r="F265" s="1" t="n">
         <v>1</v>
@@ -8243,19 +9132,16 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B266" s="5" t="s">
-        <v>681</v>
-      </c>
       <c r="C266" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>621</v>
+        <v>213</v>
       </c>
       <c r="F266" s="1" t="n">
         <v>1</v>
@@ -8263,16 +9149,16 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="C267" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>213</v>
+        <v>683</v>
       </c>
       <c r="F267" s="1" t="n">
         <v>1</v>
@@ -8289,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>686</v>
+        <v>89</v>
       </c>
       <c r="F268" s="1" t="n">
         <v>1</v>
@@ -8297,16 +9183,19 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="B269" s="6" t="s">
-        <v>688</v>
-      </c>
       <c r="C269" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>89</v>
+        <v>537</v>
       </c>
       <c r="F269" s="1" t="n">
         <v>1</v>
@@ -8314,19 +9203,16 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="B270" s="6" t="s">
-        <v>690</v>
-      </c>
       <c r="C270" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>540</v>
+        <v>231</v>
       </c>
       <c r="F270" s="1" t="n">
         <v>1</v>
@@ -8334,16 +9220,16 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B271" s="5" t="s">
         <v>691</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>692</v>
       </c>
       <c r="C271" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>231</v>
+        <v>692</v>
       </c>
       <c r="F271" s="1" t="n">
         <v>1</v>
@@ -8353,14 +9239,17 @@
       <c r="A272" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="B272" s="6" t="s">
         <v>694</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>695</v>
+        <v>218</v>
       </c>
       <c r="F272" s="1" t="n">
         <v>1</v>
@@ -8368,19 +9257,16 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B273" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B273" s="6" t="s">
-        <v>697</v>
-      </c>
       <c r="C273" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>218</v>
+        <v>626</v>
       </c>
       <c r="F273" s="1" t="n">
         <v>1</v>
@@ -8388,16 +9274,19 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="B274" s="6" t="s">
-        <v>699</v>
-      </c>
       <c r="C274" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>629</v>
+        <v>208</v>
       </c>
       <c r="F274" s="1" t="n">
         <v>1</v>
@@ -8405,47 +9294,50 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="C275" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="F275" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B276" s="5" t="s">
         <v>702</v>
       </c>
+      <c r="C276" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>703</v>
+      </c>
       <c r="F276" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="B277" s="5" t="s">
         <v>704</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>705</v>
       </c>
       <c r="C277" s="1" t="n">
         <v>3</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>705</v>
+        <v>308</v>
       </c>
       <c r="F277" s="1" t="n">
         <v>1</v>
@@ -8459,13 +9351,10 @@
         <v>707</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>308</v>
+        <v>708</v>
       </c>
       <c r="F278" s="1" t="n">
         <v>1</v>
@@ -8473,16 +9362,19 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C279" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E279" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C279" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E279" s="3" t="s">
-        <v>710</v>
       </c>
       <c r="F279" s="1" t="n">
         <v>1</v>
@@ -8492,17 +9384,17 @@
       <c r="A280" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="B280" s="6" t="s">
         <v>712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>710</v>
+        <v>55</v>
       </c>
       <c r="F280" s="1" t="n">
         <v>1</v>
@@ -8512,17 +9404,17 @@
       <c r="A281" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B281" s="6" t="s">
+      <c r="B281" s="5" t="s">
         <v>714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
       <c r="F281" s="1" t="n">
         <v>1</v>
@@ -8530,19 +9422,19 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C282" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>717</v>
+        <v>66</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>717</v>
+        <v>66</v>
       </c>
       <c r="F282" s="1" t="n">
         <v>1</v>
@@ -8552,17 +9444,17 @@
       <c r="A283" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B283" s="5" t="s">
+      <c r="B283" s="6" t="s">
         <v>719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>66</v>
+        <v>464</v>
       </c>
       <c r="F283" s="1" t="n">
         <v>1</v>
@@ -8576,13 +9468,13 @@
         <v>721</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>467</v>
+        <v>70</v>
       </c>
       <c r="F284" s="1" t="n">
         <v>1</v>
@@ -8592,17 +9484,17 @@
       <c r="A285" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B285" s="6" t="s">
+      <c r="B285" s="5" t="s">
         <v>723</v>
       </c>
       <c r="C285" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D285" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E285" s="3" t="s">
-        <v>70</v>
+        <v>724</v>
       </c>
       <c r="F285" s="1" t="n">
         <v>1</v>
@@ -8610,39 +9502,39 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B286" s="5" t="s">
         <v>725</v>
       </c>
+      <c r="B286" s="6" t="s">
+        <v>726</v>
+      </c>
       <c r="C286" s="1" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>14</v>
+        <v>727</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>726</v>
+        <v>472</v>
       </c>
       <c r="F286" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B287" s="6" t="s">
         <v>728</v>
       </c>
+      <c r="B287" s="8" t="s">
+        <v>729</v>
+      </c>
       <c r="C287" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="E287" s="3" t="s">
-        <v>475</v>
+        <v>13</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="F287" s="1" t="n">
         <v>1</v>
@@ -8656,13 +9548,13 @@
         <v>731</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>113</v>
+        <v>481</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>203</v>
+        <v>481</v>
       </c>
       <c r="F288" s="1" t="n">
         <v>1</v>
@@ -8679,52 +9571,52 @@
         <v>1</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>484</v>
+        <v>31</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>484</v>
+        <v>63</v>
       </c>
       <c r="F289" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="8" t="s">
         <v>734</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>31</v>
+        <v>348</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>63</v>
+        <v>615</v>
       </c>
       <c r="F290" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="10" t="s">
+      <c r="A291" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B291" s="8" t="s">
         <v>737</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D291" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="E291" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="F291" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F291" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8736,15 +9628,2878 @@
         <v>739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="D292" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F292" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B293" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="C293" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E293" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F293" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B294" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="C294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F294" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A295" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="C295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F295" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C296" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D296" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E296" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F296" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="C297" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D297" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E297" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F297" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="C298" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D298" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E298" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F298" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C299" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E299" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F299" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C300" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D300" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E300" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F300" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="C301" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D301" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E301" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F301" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="C302" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D302" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E302" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F302" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="C303" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E303" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F303" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A304" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="C304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F304" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A305" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="C305" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D305" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E305" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F305" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A306" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="C306" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E306" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F306" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A307" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C307" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E307" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F307" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A308" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="C308" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E308" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F308" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A309" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="C309" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D309" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E292" s="11" t="s">
+      <c r="E309" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F309" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A310" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="C310" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D310" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E310" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F310" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A311" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="C311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F311" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A312" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B312" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="C312" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E312" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F312" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A313" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B313" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C313" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D313" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E313" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F313" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A314" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="C314" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="E314" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="F314" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A315" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E315" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F315" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A316" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="C316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E316" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F316" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A317" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B317" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C317" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E317" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F317" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A318" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="B318" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C318" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D318" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E318" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="F318" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A319" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B319" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="C319" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="E319" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F319" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A320" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B320" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="C320" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E320" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F320" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A321" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B321" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C321" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D321" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E321" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F321" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A322" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B322" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="C322" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D322" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E322" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F322" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A323" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B323" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="C323" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D323" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E323" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F323" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A324" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="C324" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E324" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F324" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A325" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C325" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E325" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F325" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A326" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B326" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F326" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A327" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B327" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C327" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D327" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E327" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F327" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A328" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B328" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C328" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D328" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E328" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F328" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B329" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C329" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D329" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E329" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F329" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A330" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B330" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="C330" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E330" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F330" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="C331" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D331" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E331" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F331" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B332" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C332" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E332" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F332" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A333" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B333" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="C333" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E333" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F333" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A334" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B334" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="C334" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D334" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E334" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F334" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A335" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="C335" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D335" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E335" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F335" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C336" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D336" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F336" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A337" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B337" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C337" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D337" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E337" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F337" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A338" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B338" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="C338" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D338" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E338" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F338" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B339" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="C339" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D339" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="E339" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="F339" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A340" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B340" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="C340" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D340" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E340" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F340" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A341" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B341" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="C341" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D341" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E341" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F341" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A342" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B342" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="C342" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D342" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E342" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="F342" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A343" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B343" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="C343" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D343" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E343" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F343" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A344" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C344" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D344" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="E344" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="F344" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A345" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B345" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="C345" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E345" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="F345" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A346" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B346" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="C346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E346" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F346" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A347" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B347" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E347" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="F347" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A348" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B348" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="C348" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D348" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E348" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F348" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A349" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B349" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="C349" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D349" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E349" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F349" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A350" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B350" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="C350" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E350" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="F350" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A351" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B351" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="C351" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D351" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E351" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F351" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A352" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="B352" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="C352" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D352" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="E352" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F352" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A353" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B353" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="C353" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D353" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E353" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="F353" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A354" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="B354" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="C354" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E354" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F354" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A355" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="C355" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E355" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F355" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A356" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="C356" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E356" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="F356" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A357" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B357" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="C357" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D357" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E357" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F357" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A358" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B358" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="C358" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E358" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F358" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A359" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B359" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="C359" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D359" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E359" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F359" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B360" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="C360" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D360" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E360" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F360" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B361" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="C361" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D361" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E361" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="F361" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B362" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C362" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D362" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E362" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="F362" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B363" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="C363" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D363" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E363" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F363" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A364" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B364" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="C364" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D364" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E364" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F292" s="0" t="n">
+      <c r="F364" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B365" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="C365" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D365" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E365" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F365" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A366" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B366" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="C366" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D366" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E366" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F366" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A367" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B367" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C367" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D367" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="E367" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F367" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A368" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B368" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="C368" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D368" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E368" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F368" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A369" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B369" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="C369" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D369" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="E369" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F369" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A370" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B370" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="C370" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D370" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E370" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F370" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A371" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B371" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="C371" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E371" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F371" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A372" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B372" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="C372" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D372" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E372" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="F372" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A373" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B373" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="C373" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D373" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E373" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F373" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A374" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B374" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="C374" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D374" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E374" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F374" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A375" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B375" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="C375" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D375" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E375" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="F375" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A376" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B376" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="C376" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D376" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="E376" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="F376" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B377" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="C377" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D377" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E377" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F377" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A378" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B378" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="C378" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E378" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F378" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A379" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B379" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="C379" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D379" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E379" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F379" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A380" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B380" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="C380" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E380" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F380" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A381" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B381" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="C381" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D381" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="E381" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F381" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A382" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B382" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="C382" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D382" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E382" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F382" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A383" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B383" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="C383" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D383" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="E383" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="F383" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A384" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B384" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="C384" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D384" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E384" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F384" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A385" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B385" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="C385" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D385" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="E385" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="F385" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A386" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B386" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="C386" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D386" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E386" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="F386" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A387" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B387" s="10" t="s">
+        <v>937</v>
+      </c>
+      <c r="C387" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D387" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E387" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="F387" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A388" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B388" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="C388" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D388" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E388" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="F388" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A389" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B389" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="C389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E389" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="F389" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A390" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B390" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="C390" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D390" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E390" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F390" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A391" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B391" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="C391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E391" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F391" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A392" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B392" s="10" t="s">
+        <v>947</v>
+      </c>
+      <c r="C392" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D392" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E392" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F392" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A393" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B393" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="C393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E393" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F393" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A394" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B394" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C394" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D394" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E394" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="F394" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A395" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B395" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="C395" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D395" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E395" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F395" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A396" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B396" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="C396" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D396" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="E396" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="F396" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A397" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="C397" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D397" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E397" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F397" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A398" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="C398" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D398" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E398" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F398" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A399" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>961</v>
+      </c>
+      <c r="C399" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D399" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E399" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="F399" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A400" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B400" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C400" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D400" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E400" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F400" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A401" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B401" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="C401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E401" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F401" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A402" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B402" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="C402" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D402" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E402" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F402" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A403" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B403" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="C403" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D403" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E403" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F403" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A404" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B404" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="C404" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D404" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E404" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F404" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A405" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B405" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="C405" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D405" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E405" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F405" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A406" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="C406" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D406" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E406" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="F406" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A407" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="C407" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D407" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E407" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F407" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A408" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B408" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="C408" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D408" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E408" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F408" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B409" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="C409" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E409" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F409" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B410" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="C410" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D410" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E410" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="F410" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="C411" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D411" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E411" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F411" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B412" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="C412" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D412" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E412" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F412" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B413" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="C413" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D413" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E413" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F413" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B414" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="C414" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D414" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E414" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F414" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B415" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="C415" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D415" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E415" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F415" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B416" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="C416" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D416" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E416" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F416" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A417" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B417" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="C417" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D417" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E417" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F417" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A418" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B418" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="C418" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E418" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F418" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A419" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B419" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C419" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D419" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="E419" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F419" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A420" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B420" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C420" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D420" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E420" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F420" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A421" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B421" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C421" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D421" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E421" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F421" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A422" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B422" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C422" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D422" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E422" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F422" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A423" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B423" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C423" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D423" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E423" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="F423" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A424" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C424" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D424" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E424" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F424" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A425" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B425" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C425" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D425" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E425" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F425" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A426" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B426" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C426" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D426" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E426" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F426" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A427" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B427" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C427" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D427" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E427" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F427" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A428" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B428" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C428" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D428" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E428" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F428" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A429" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B429" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C429" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E429" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F429" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A430" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B430" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C430" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D430" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E430" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F430" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A431" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B431" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C431" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D431" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E431" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F431" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A432" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B432" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C432" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D432" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="E432" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="F432" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A433" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B433" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C433" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D433" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="E433" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F433" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A434" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B434" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C434" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D434" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E434" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F434" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A435" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B435" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C435" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D435" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E435" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F435" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A436" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B436" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C436" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D436" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="E436" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="F436" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A437" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B437" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C437" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E437" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F437" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A438" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B438" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C438" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D438" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E438" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F438" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A439" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B439" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C439" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D439" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E439" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F439" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/white_internet.xlsx
+++ b/white_internet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="1046">
   <si>
     <t xml:space="preserve">@aliasghar_1999</t>
   </si>
@@ -3805,6 +3805,18 @@
   </si>
   <si>
     <t xml:space="preserve">نَفَس دُخت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@asemanihonar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راحیل‏ 𓂆‌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@n_nikjoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIMA NIKJOO</t>
   </si>
 </sst>
 </file>
@@ -4070,10 +4082,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F439"/>
+  <dimension ref="A1:F441"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A419" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F439" activeCellId="0" sqref="F439"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A411" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F429" activeCellId="0" sqref="F429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12503,6 +12515,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A440" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B440" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C440" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D440" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E440" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F440" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A441" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B441" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C441" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D441" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E441" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F441" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/white_internet.xlsx
+++ b/white_internet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="1137">
   <si>
     <t xml:space="preserve">@aliasghar_1999</t>
   </si>
@@ -3817,6 +3817,279 @@
   </si>
   <si>
     <t xml:space="preserve">NIMA NIKJOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@amirebtehaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amir Ebtehaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@irancell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTN Irancell-ایرانسل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@explorerr2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@saryeh_komala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozhda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Russell_Adlere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shah®ukh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@a_1874ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امیر ب ۷۴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@navidaaaaaaaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navid mohammadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@yazecoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yazeco.ir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@amir_karimzad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amir Karimzad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@yasi_r_313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یاسی رزاقیان اکانت قبلی ساسپندشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@b_abbasiarand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bijan Abbasi Arand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zarghami_ez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سید عزت الله ضرغامی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@dotone_channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DotOne دات‌وان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mmhhssnn7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کوروتوپول بهداشتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@msteerpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ghadirinetwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احمد قدیری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@soheil_asaad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سهیل اسعد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@alirahimi1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Rahimi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@shaqayeqhastamm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شَ قایق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ilam_98_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| دختر آلامتو |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zeynabbahmani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زینب بهمنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@amin2709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Totya54442074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توتیا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@neda_andi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ندای اندیمشک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@f_gholami1359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاطمه غلامی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@farhad_nazarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرهاد نظریان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@atefeh1127713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atefeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@xuser44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@MmJmMmAmZV110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دیوُ دِلبَر(قلب مقاومتغَزِّة)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Doovare_Loor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دُووَرِ لُر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@faezem13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">𝒇𝒂𝒆𝒛𝒆 𝒎𝒂𝒅𝒂𝒅𝒊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@goldasteh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلدسته</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@B_larde5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|•بـــاݩۅۍلـَردِه•|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rana_1267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رعنـــآ:)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hassan045081070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hassan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zttabrizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahra tabrizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Kh_amini13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خانم امینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ilqar1607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehdi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mehrdwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehrdad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@v_digar_hich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوز سرما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@moalem70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معلم دهه هفتادی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@sarafakourii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سارا فکوری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mamad__p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ممد پی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@gizBaBa4145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قیز بابا :) </t>
   </si>
 </sst>
 </file>
@@ -3910,7 +4183,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3957,6 +4230,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4082,15 +4359,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F441"/>
+  <dimension ref="A1:F485"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A411" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F429" activeCellId="0" sqref="F429"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="G1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.69"/>
@@ -9636,16 +9913,16 @@
       <c r="A292" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B292" s="8" t="s">
         <v>739</v>
       </c>
       <c r="C292" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E292" s="11" t="s">
+      <c r="E292" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F292" s="0" t="n">
+      <c r="F292" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9653,19 +9930,19 @@
       <c r="A293" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B293" s="8" t="s">
         <v>741</v>
       </c>
       <c r="C293" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D293" s="11" t="s">
+      <c r="D293" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E293" s="11" t="s">
+      <c r="E293" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F293" s="0" t="n">
+      <c r="F293" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9673,33 +9950,33 @@
       <c r="A294" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B294" s="10" t="s">
+      <c r="B294" s="8" t="s">
         <v>743</v>
       </c>
       <c r="C294" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E294" s="11" t="s">
+      <c r="E294" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="F294" s="0" t="n">
+      <c r="F294" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="10" t="s">
+      <c r="A295" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="B295" s="10" t="s">
+      <c r="B295" s="8" t="s">
         <v>745</v>
       </c>
       <c r="C295" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E295" s="11" t="s">
+      <c r="E295" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F295" s="0" t="n">
+      <c r="F295" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9707,19 +9984,19 @@
       <c r="A296" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B296" s="8" t="s">
         <v>747</v>
       </c>
       <c r="C296" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D296" s="11" t="s">
+      <c r="D296" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="E296" s="11" t="s">
+      <c r="E296" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="F296" s="0" t="n">
+      <c r="F296" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9727,19 +10004,19 @@
       <c r="A297" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B297" s="8" t="s">
         <v>749</v>
       </c>
       <c r="C297" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D297" s="11" t="s">
+      <c r="D297" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E297" s="11" t="s">
+      <c r="E297" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F297" s="0" t="n">
+      <c r="F297" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9747,19 +10024,19 @@
       <c r="A298" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B298" s="10" t="s">
+      <c r="B298" s="8" t="s">
         <v>751</v>
       </c>
       <c r="C298" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D298" s="11" t="s">
+      <c r="D298" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E298" s="11" t="s">
+      <c r="E298" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F298" s="0" t="n">
+      <c r="F298" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9767,19 +10044,19 @@
       <c r="A299" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B299" s="10" t="s">
+      <c r="B299" s="8" t="s">
         <v>753</v>
       </c>
       <c r="C299" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D299" s="11" t="s">
+      <c r="D299" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E299" s="11" t="s">
+      <c r="E299" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F299" s="0" t="n">
+      <c r="F299" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9787,19 +10064,19 @@
       <c r="A300" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B300" s="8" t="s">
         <v>755</v>
       </c>
       <c r="C300" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D300" s="11" t="s">
+      <c r="D300" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E300" s="11" t="s">
+      <c r="E300" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F300" s="0" t="n">
+      <c r="F300" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9807,19 +10084,19 @@
       <c r="A301" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B301" s="10" t="s">
+      <c r="B301" s="8" t="s">
         <v>757</v>
       </c>
       <c r="C301" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D301" s="11" t="s">
+      <c r="D301" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E301" s="11" t="s">
+      <c r="E301" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F301" s="0" t="n">
+      <c r="F301" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9827,19 +10104,19 @@
       <c r="A302" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B302" s="10" t="s">
+      <c r="B302" s="8" t="s">
         <v>759</v>
       </c>
       <c r="C302" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D302" s="11" t="s">
+      <c r="D302" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E302" s="11" t="s">
+      <c r="E302" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F302" s="0" t="n">
+      <c r="F302" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9847,19 +10124,19 @@
       <c r="A303" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B303" s="10" t="s">
+      <c r="B303" s="8" t="s">
         <v>761</v>
       </c>
       <c r="C303" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D303" s="11" t="s">
+      <c r="D303" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="E303" s="11" t="s">
+      <c r="E303" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="F303" s="0" t="n">
+      <c r="F303" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9867,17 +10144,17 @@
       <c r="A304" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B304" s="10" t="s">
+      <c r="B304" s="8" t="s">
         <v>763</v>
       </c>
       <c r="C304" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D304" s="11"/>
-      <c r="E304" s="11" t="s">
+      <c r="D304" s="9"/>
+      <c r="E304" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F304" s="0" t="n">
+      <c r="F304" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9885,19 +10162,19 @@
       <c r="A305" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B305" s="10" t="s">
+      <c r="B305" s="8" t="s">
         <v>765</v>
       </c>
       <c r="C305" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D305" s="11" t="s">
+      <c r="D305" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E305" s="11" t="s">
+      <c r="E305" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F305" s="0" t="n">
+      <c r="F305" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9905,19 +10182,19 @@
       <c r="A306" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B306" s="10" t="s">
+      <c r="B306" s="8" t="s">
         <v>767</v>
       </c>
       <c r="C306" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D306" s="11" t="s">
+      <c r="D306" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E306" s="11" t="s">
+      <c r="E306" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="F306" s="0" t="n">
+      <c r="F306" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9925,19 +10202,19 @@
       <c r="A307" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B307" s="10" t="s">
+      <c r="B307" s="8" t="s">
         <v>769</v>
       </c>
       <c r="C307" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D307" s="11" t="s">
+      <c r="D307" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E307" s="11" t="s">
+      <c r="E307" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F307" s="0" t="n">
+      <c r="F307" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9945,19 +10222,19 @@
       <c r="A308" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B308" s="10" t="s">
+      <c r="B308" s="8" t="s">
         <v>771</v>
       </c>
       <c r="C308" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D308" s="11" t="s">
+      <c r="D308" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E308" s="11" t="s">
+      <c r="E308" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F308" s="0" t="n">
+      <c r="F308" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9965,39 +10242,39 @@
       <c r="A309" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="8" t="s">
         <v>773</v>
       </c>
       <c r="C309" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D309" s="11" t="s">
+      <c r="D309" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E309" s="11" t="s">
+      <c r="E309" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F309" s="0" t="n">
+      <c r="F309" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="10" t="s">
+      <c r="A310" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="B310" s="8" t="s">
         <v>775</v>
       </c>
       <c r="C310" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D310" s="11" t="s">
+      <c r="D310" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E310" s="11" t="s">
+      <c r="E310" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="F310" s="0" t="n">
+      <c r="F310" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10005,16 +10282,16 @@
       <c r="A311" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B311" s="10" t="s">
+      <c r="B311" s="8" t="s">
         <v>777</v>
       </c>
       <c r="C311" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E311" s="11" t="s">
+      <c r="E311" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F311" s="0" t="n">
+      <c r="F311" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10022,19 +10299,19 @@
       <c r="A312" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="B312" s="8" t="s">
         <v>779</v>
       </c>
       <c r="C312" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D312" s="11" t="s">
+      <c r="D312" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="E312" s="11" t="s">
+      <c r="E312" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="F312" s="0" t="n">
+      <c r="F312" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10042,19 +10319,19 @@
       <c r="A313" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B313" s="10" t="s">
+      <c r="B313" s="8" t="s">
         <v>781</v>
       </c>
       <c r="C313" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D313" s="11" t="s">
+      <c r="D313" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E313" s="11" t="s">
+      <c r="E313" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="F313" s="0" t="n">
+      <c r="F313" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10062,19 +10339,19 @@
       <c r="A314" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="B314" s="8" t="s">
         <v>783</v>
       </c>
       <c r="C314" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D314" s="11" t="s">
+      <c r="D314" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="E314" s="11" t="s">
+      <c r="E314" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="F314" s="0" t="n">
+      <c r="F314" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10082,16 +10359,16 @@
       <c r="A315" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B315" s="10" t="s">
+      <c r="B315" s="8" t="s">
         <v>786</v>
       </c>
       <c r="C315" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E315" s="11" t="s">
+      <c r="E315" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="F315" s="0" t="n">
+      <c r="F315" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10099,16 +10376,16 @@
       <c r="A316" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B316" s="10" t="s">
+      <c r="B316" s="8" t="s">
         <v>788</v>
       </c>
       <c r="C316" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E316" s="11" t="s">
+      <c r="E316" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F316" s="0" t="n">
+      <c r="F316" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10116,39 +10393,39 @@
       <c r="A317" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B317" s="10" t="s">
+      <c r="B317" s="8" t="s">
         <v>790</v>
       </c>
       <c r="C317" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D317" s="11" t="s">
+      <c r="D317" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E317" s="11" t="s">
+      <c r="E317" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F317" s="0" t="n">
+      <c r="F317" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="10" t="s">
+      <c r="A318" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="B318" s="10" t="s">
+      <c r="B318" s="8" t="s">
         <v>792</v>
       </c>
       <c r="C318" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D318" s="11" t="s">
+      <c r="D318" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E318" s="11" t="s">
+      <c r="E318" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="F318" s="0" t="n">
+      <c r="F318" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10156,19 +10433,19 @@
       <c r="A319" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B319" s="10" t="s">
+      <c r="B319" s="8" t="s">
         <v>794</v>
       </c>
       <c r="C319" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D319" s="11" t="s">
+      <c r="D319" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="E319" s="11" t="s">
+      <c r="E319" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F319" s="0" t="n">
+      <c r="F319" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10176,19 +10453,19 @@
       <c r="A320" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B320" s="10" t="s">
+      <c r="B320" s="8" t="s">
         <v>796</v>
       </c>
       <c r="C320" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D320" s="11" t="s">
+      <c r="D320" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E320" s="11" t="s">
+      <c r="E320" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="F320" s="0" t="n">
+      <c r="F320" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10196,19 +10473,19 @@
       <c r="A321" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B321" s="10" t="s">
+      <c r="B321" s="8" t="s">
         <v>798</v>
       </c>
       <c r="C321" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D321" s="11" t="s">
+      <c r="D321" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E321" s="11" t="s">
+      <c r="E321" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F321" s="0" t="n">
+      <c r="F321" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10216,19 +10493,19 @@
       <c r="A322" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B322" s="10" t="s">
+      <c r="B322" s="8" t="s">
         <v>800</v>
       </c>
       <c r="C322" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D322" s="11" t="s">
+      <c r="D322" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E322" s="11" t="s">
+      <c r="E322" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F322" s="0" t="n">
+      <c r="F322" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10236,19 +10513,19 @@
       <c r="A323" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B323" s="10" t="s">
+      <c r="B323" s="8" t="s">
         <v>802</v>
       </c>
       <c r="C323" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D323" s="11" t="s">
+      <c r="D323" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E323" s="11" t="s">
+      <c r="E323" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F323" s="0" t="n">
+      <c r="F323" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10256,19 +10533,19 @@
       <c r="A324" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B324" s="10" t="s">
+      <c r="B324" s="8" t="s">
         <v>804</v>
       </c>
       <c r="C324" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D324" s="11" t="s">
+      <c r="D324" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E324" s="11" t="s">
+      <c r="E324" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F324" s="0" t="n">
+      <c r="F324" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10276,19 +10553,19 @@
       <c r="A325" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B325" s="10" t="s">
+      <c r="B325" s="8" t="s">
         <v>806</v>
       </c>
       <c r="C325" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D325" s="11" t="s">
+      <c r="D325" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E325" s="11" t="s">
+      <c r="E325" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F325" s="0" t="n">
+      <c r="F325" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10296,16 +10573,16 @@
       <c r="A326" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B326" s="10" t="s">
+      <c r="B326" s="8" t="s">
         <v>808</v>
       </c>
       <c r="C326" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E326" s="11" t="s">
+      <c r="E326" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F326" s="0" t="n">
+      <c r="F326" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10313,19 +10590,19 @@
       <c r="A327" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B327" s="10" t="s">
+      <c r="B327" s="8" t="s">
         <v>810</v>
       </c>
       <c r="C327" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D327" s="11" t="s">
+      <c r="D327" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E327" s="11" t="s">
+      <c r="E327" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F327" s="0" t="n">
+      <c r="F327" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10333,19 +10610,19 @@
       <c r="A328" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B328" s="10" t="s">
+      <c r="B328" s="8" t="s">
         <v>812</v>
       </c>
       <c r="C328" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D328" s="11" t="s">
+      <c r="D328" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E328" s="11" t="s">
+      <c r="E328" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F328" s="0" t="n">
+      <c r="F328" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10353,19 +10630,19 @@
       <c r="A329" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B329" s="10" t="s">
+      <c r="B329" s="8" t="s">
         <v>814</v>
       </c>
       <c r="C329" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D329" s="11" t="s">
+      <c r="D329" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="E329" s="11" t="s">
+      <c r="E329" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F329" s="0" t="n">
+      <c r="F329" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10373,19 +10650,19 @@
       <c r="A330" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B330" s="10" t="s">
+      <c r="B330" s="8" t="s">
         <v>816</v>
       </c>
       <c r="C330" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D330" s="11" t="s">
+      <c r="D330" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E330" s="11" t="s">
+      <c r="E330" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F330" s="0" t="n">
+      <c r="F330" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10393,19 +10670,19 @@
       <c r="A331" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B331" s="10" t="s">
+      <c r="B331" s="8" t="s">
         <v>818</v>
       </c>
       <c r="C331" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D331" s="11" t="s">
+      <c r="D331" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E331" s="11" t="s">
+      <c r="E331" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F331" s="0" t="n">
+      <c r="F331" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10413,19 +10690,19 @@
       <c r="A332" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B332" s="10" t="s">
+      <c r="B332" s="8" t="s">
         <v>310</v>
       </c>
       <c r="C332" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D332" s="11" t="s">
+      <c r="D332" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E332" s="11" t="s">
+      <c r="E332" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="F332" s="0" t="n">
+      <c r="F332" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10433,19 +10710,19 @@
       <c r="A333" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B333" s="10" t="s">
+      <c r="B333" s="8" t="s">
         <v>821</v>
       </c>
       <c r="C333" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D333" s="11" t="s">
+      <c r="D333" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="E333" s="11" t="s">
+      <c r="E333" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="F333" s="0" t="n">
+      <c r="F333" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10453,19 +10730,19 @@
       <c r="A334" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B334" s="10" t="s">
+      <c r="B334" s="8" t="s">
         <v>823</v>
       </c>
       <c r="C334" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D334" s="11" t="s">
+      <c r="D334" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="11" t="s">
+      <c r="E334" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F334" s="0" t="n">
+      <c r="F334" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10473,19 +10750,19 @@
       <c r="A335" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B335" s="10" t="s">
+      <c r="B335" s="8" t="s">
         <v>825</v>
       </c>
       <c r="C335" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D335" s="11" t="s">
+      <c r="D335" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E335" s="11" t="s">
+      <c r="E335" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F335" s="0" t="n">
+      <c r="F335" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10499,13 +10776,13 @@
       <c r="C336" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D336" s="11" t="s">
+      <c r="D336" s="9" t="s">
         <v>828</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F336" s="0" t="n">
+      <c r="F336" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10513,19 +10790,19 @@
       <c r="A337" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B337" s="10" t="s">
+      <c r="B337" s="8" t="s">
         <v>830</v>
       </c>
       <c r="C337" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D337" s="11" t="s">
+      <c r="D337" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E337" s="11" t="s">
+      <c r="E337" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="F337" s="0" t="n">
+      <c r="F337" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10533,19 +10810,19 @@
       <c r="A338" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B338" s="10" t="s">
+      <c r="B338" s="8" t="s">
         <v>832</v>
       </c>
       <c r="C338" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D338" s="11" t="s">
+      <c r="D338" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="E338" s="11" t="s">
+      <c r="E338" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="F338" s="0" t="n">
+      <c r="F338" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10553,19 +10830,19 @@
       <c r="A339" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B339" s="10" t="s">
+      <c r="B339" s="8" t="s">
         <v>834</v>
       </c>
       <c r="C339" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D339" s="11" t="s">
+      <c r="D339" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="E339" s="11" t="s">
+      <c r="E339" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="F339" s="0" t="n">
+      <c r="F339" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10573,19 +10850,19 @@
       <c r="A340" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B340" s="10" t="s">
+      <c r="B340" s="8" t="s">
         <v>837</v>
       </c>
       <c r="C340" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D340" s="11" t="s">
+      <c r="D340" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E340" s="11" t="s">
+      <c r="E340" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F340" s="0" t="n">
+      <c r="F340" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10593,19 +10870,19 @@
       <c r="A341" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B341" s="10" t="s">
+      <c r="B341" s="8" t="s">
         <v>839</v>
       </c>
       <c r="C341" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D341" s="11" t="s">
+      <c r="D341" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E341" s="11" t="s">
+      <c r="E341" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F341" s="0" t="n">
+      <c r="F341" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10613,19 +10890,19 @@
       <c r="A342" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B342" s="10" t="s">
+      <c r="B342" s="8" t="s">
         <v>841</v>
       </c>
       <c r="C342" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D342" s="11" t="s">
+      <c r="D342" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E342" s="11" t="s">
+      <c r="E342" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="F342" s="0" t="n">
+      <c r="F342" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10633,19 +10910,19 @@
       <c r="A343" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B343" s="10" t="s">
+      <c r="B343" s="8" t="s">
         <v>844</v>
       </c>
       <c r="C343" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D343" s="11" t="s">
+      <c r="D343" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E343" s="11" t="s">
+      <c r="E343" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F343" s="0" t="n">
+      <c r="F343" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10659,13 +10936,13 @@
       <c r="C344" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D344" s="11" t="s">
+      <c r="D344" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="E344" s="11" t="s">
+      <c r="E344" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="F344" s="0" t="n">
+      <c r="F344" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10673,19 +10950,19 @@
       <c r="A345" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B345" s="10" t="s">
+      <c r="B345" s="8" t="s">
         <v>849</v>
       </c>
       <c r="C345" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D345" s="11" t="s">
+      <c r="D345" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="E345" s="11" t="s">
+      <c r="E345" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="F345" s="0" t="n">
+      <c r="F345" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10693,16 +10970,16 @@
       <c r="A346" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="B346" s="10" t="s">
+      <c r="B346" s="8" t="s">
         <v>851</v>
       </c>
       <c r="C346" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E346" s="11" t="s">
+      <c r="E346" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F346" s="0" t="n">
+      <c r="F346" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10710,16 +10987,16 @@
       <c r="A347" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B347" s="10" t="s">
+      <c r="B347" s="8" t="s">
         <v>853</v>
       </c>
       <c r="C347" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E347" s="11" t="s">
+      <c r="E347" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="F347" s="0" t="n">
+      <c r="F347" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10727,19 +11004,19 @@
       <c r="A348" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B348" s="10" t="s">
+      <c r="B348" s="8" t="s">
         <v>856</v>
       </c>
       <c r="C348" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D348" s="11" t="s">
+      <c r="D348" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E348" s="11" t="s">
+      <c r="E348" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F348" s="0" t="n">
+      <c r="F348" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10747,19 +11024,19 @@
       <c r="A349" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B349" s="10" t="s">
+      <c r="B349" s="8" t="s">
         <v>858</v>
       </c>
       <c r="C349" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D349" s="11" t="s">
+      <c r="D349" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E349" s="11" t="s">
+      <c r="E349" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F349" s="0" t="n">
+      <c r="F349" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10767,16 +11044,16 @@
       <c r="A350" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B350" s="10" t="s">
+      <c r="B350" s="8" t="s">
         <v>860</v>
       </c>
       <c r="C350" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E350" s="11" t="s">
+      <c r="E350" s="9" t="s">
         <v>861</v>
       </c>
-      <c r="F350" s="0" t="n">
+      <c r="F350" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10784,39 +11061,39 @@
       <c r="A351" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B351" s="10" t="s">
+      <c r="B351" s="8" t="s">
         <v>863</v>
       </c>
       <c r="C351" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D351" s="11" t="s">
+      <c r="D351" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="E351" s="11" t="s">
+      <c r="E351" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="F351" s="0" t="n">
+      <c r="F351" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="10" t="s">
+      <c r="A352" s="8" t="s">
         <v>864</v>
       </c>
-      <c r="B352" s="10" t="s">
+      <c r="B352" s="8" t="s">
         <v>865</v>
       </c>
       <c r="C352" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D352" s="11" t="s">
+      <c r="D352" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="E352" s="11" t="s">
+      <c r="E352" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F352" s="0" t="n">
+      <c r="F352" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10824,36 +11101,36 @@
       <c r="A353" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B353" s="10" t="s">
+      <c r="B353" s="8" t="s">
         <v>868</v>
       </c>
       <c r="C353" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D353" s="11" t="s">
+      <c r="D353" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E353" s="11" t="s">
+      <c r="E353" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="F353" s="0" t="n">
+      <c r="F353" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A354" s="10" t="s">
+      <c r="A354" s="8" t="s">
         <v>869</v>
       </c>
-      <c r="B354" s="10" t="s">
+      <c r="B354" s="8" t="s">
         <v>870</v>
       </c>
       <c r="C354" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E354" s="11" t="s">
+      <c r="E354" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F354" s="0" t="n">
+      <c r="F354" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10861,33 +11138,33 @@
       <c r="A355" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B355" s="10" t="s">
+      <c r="B355" s="8" t="s">
         <v>872</v>
       </c>
       <c r="C355" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E355" s="11" t="s">
+      <c r="E355" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F355" s="0" t="n">
+      <c r="F355" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A356" s="10" t="s">
+      <c r="A356" s="8" t="s">
         <v>873</v>
       </c>
-      <c r="B356" s="10" t="s">
+      <c r="B356" s="8" t="s">
         <v>874</v>
       </c>
       <c r="C356" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E356" s="11" t="s">
+      <c r="E356" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="F356" s="0" t="n">
+      <c r="F356" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10895,19 +11172,19 @@
       <c r="A357" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="B357" s="10" t="s">
+      <c r="B357" s="8" t="s">
         <v>877</v>
       </c>
       <c r="C357" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D357" s="11" t="s">
+      <c r="D357" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E357" s="11" t="s">
+      <c r="E357" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F357" s="0" t="n">
+      <c r="F357" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10915,16 +11192,16 @@
       <c r="A358" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B358" s="10" t="s">
+      <c r="B358" s="8" t="s">
         <v>879</v>
       </c>
       <c r="C358" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E358" s="11" t="s">
+      <c r="E358" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="F358" s="0" t="n">
+      <c r="F358" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10932,19 +11209,19 @@
       <c r="A359" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="B359" s="10" t="s">
+      <c r="B359" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="C359" s="10" t="n">
+      <c r="C359" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D359" s="11" t="s">
+      <c r="D359" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E359" s="11" t="s">
+      <c r="E359" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="F359" s="0" t="n">
+      <c r="F359" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10952,19 +11229,19 @@
       <c r="A360" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B360" s="10" t="s">
+      <c r="B360" s="8" t="s">
         <v>883</v>
       </c>
       <c r="C360" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D360" s="11" t="s">
+      <c r="D360" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E360" s="11" t="s">
+      <c r="E360" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F360" s="0" t="n">
+      <c r="F360" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10972,19 +11249,19 @@
       <c r="A361" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B361" s="10" t="s">
+      <c r="B361" s="8" t="s">
         <v>885</v>
       </c>
       <c r="C361" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D361" s="11" t="s">
+      <c r="D361" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E361" s="11" t="s">
+      <c r="E361" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="F361" s="0" t="n">
+      <c r="F361" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10992,19 +11269,19 @@
       <c r="A362" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B362" s="10" t="s">
+      <c r="B362" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C362" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D362" s="11" t="s">
+      <c r="D362" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E362" s="11" t="s">
+      <c r="E362" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="F362" s="0" t="n">
+      <c r="F362" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11012,19 +11289,19 @@
       <c r="A363" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B363" s="10" t="s">
+      <c r="B363" s="8" t="s">
         <v>888</v>
       </c>
       <c r="C363" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D363" s="11" t="s">
+      <c r="D363" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E363" s="11" t="s">
+      <c r="E363" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F363" s="0" t="n">
+      <c r="F363" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11032,19 +11309,19 @@
       <c r="A364" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B364" s="10" t="s">
+      <c r="B364" s="8" t="s">
         <v>890</v>
       </c>
       <c r="C364" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D364" s="11" t="s">
+      <c r="D364" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E364" s="11" t="s">
+      <c r="E364" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F364" s="0" t="n">
+      <c r="F364" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11052,19 +11329,19 @@
       <c r="A365" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B365" s="10" t="s">
+      <c r="B365" s="8" t="s">
         <v>892</v>
       </c>
       <c r="C365" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D365" s="11" t="s">
+      <c r="D365" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E365" s="11" t="s">
+      <c r="E365" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="F365" s="0" t="n">
+      <c r="F365" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11072,19 +11349,19 @@
       <c r="A366" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="B366" s="10" t="s">
+      <c r="B366" s="8" t="s">
         <v>894</v>
       </c>
       <c r="C366" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D366" s="11" t="s">
+      <c r="D366" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E366" s="11" t="s">
+      <c r="E366" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F366" s="0" t="n">
+      <c r="F366" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11092,19 +11369,19 @@
       <c r="A367" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B367" s="10" t="s">
+      <c r="B367" s="8" t="s">
         <v>896</v>
       </c>
       <c r="C367" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D367" s="11" t="s">
+      <c r="D367" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="E367" s="11" t="s">
+      <c r="E367" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F367" s="0" t="n">
+      <c r="F367" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11112,19 +11389,19 @@
       <c r="A368" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B368" s="10" t="s">
+      <c r="B368" s="8" t="s">
         <v>898</v>
       </c>
       <c r="C368" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D368" s="11" t="s">
+      <c r="D368" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E368" s="11" t="s">
+      <c r="E368" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F368" s="0" t="n">
+      <c r="F368" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11132,19 +11409,19 @@
       <c r="A369" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B369" s="10" t="s">
+      <c r="B369" s="8" t="s">
         <v>900</v>
       </c>
       <c r="C369" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D369" s="11" t="s">
+      <c r="D369" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="E369" s="11" t="s">
+      <c r="E369" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F369" s="0" t="n">
+      <c r="F369" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11152,19 +11429,19 @@
       <c r="A370" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="B370" s="10" t="s">
+      <c r="B370" s="8" t="s">
         <v>902</v>
       </c>
       <c r="C370" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D370" s="11" t="s">
+      <c r="D370" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E370" s="11" t="s">
+      <c r="E370" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="F370" s="0" t="n">
+      <c r="F370" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11172,16 +11449,16 @@
       <c r="A371" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B371" s="10" t="s">
+      <c r="B371" s="8" t="s">
         <v>904</v>
       </c>
       <c r="C371" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E371" s="11" t="s">
+      <c r="E371" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="F371" s="0" t="n">
+      <c r="F371" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11189,19 +11466,19 @@
       <c r="A372" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B372" s="10" t="s">
+      <c r="B372" s="8" t="s">
         <v>906</v>
       </c>
       <c r="C372" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D372" s="11" t="s">
+      <c r="D372" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E372" s="11" t="s">
+      <c r="E372" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="F372" s="0" t="n">
+      <c r="F372" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11209,19 +11486,19 @@
       <c r="A373" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B373" s="10" t="s">
+      <c r="B373" s="8" t="s">
         <v>908</v>
       </c>
       <c r="C373" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D373" s="11" t="s">
+      <c r="D373" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E373" s="11" t="s">
+      <c r="E373" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F373" s="0" t="n">
+      <c r="F373" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11229,19 +11506,19 @@
       <c r="A374" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="B374" s="10" t="s">
+      <c r="B374" s="8" t="s">
         <v>910</v>
       </c>
       <c r="C374" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D374" s="11" t="s">
+      <c r="D374" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E374" s="11" t="s">
+      <c r="E374" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F374" s="0" t="n">
+      <c r="F374" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11249,19 +11526,19 @@
       <c r="A375" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="B375" s="10" t="s">
+      <c r="B375" s="8" t="s">
         <v>912</v>
       </c>
       <c r="C375" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D375" s="11" t="s">
+      <c r="D375" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="E375" s="11" t="s">
+      <c r="E375" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="F375" s="0" t="n">
+      <c r="F375" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11269,19 +11546,19 @@
       <c r="A376" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="B376" s="10" t="s">
+      <c r="B376" s="8" t="s">
         <v>914</v>
       </c>
       <c r="C376" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D376" s="11" t="s">
+      <c r="D376" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="E376" s="11" t="s">
+      <c r="E376" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="F376" s="0" t="n">
+      <c r="F376" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11289,19 +11566,19 @@
       <c r="A377" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="B377" s="10" t="s">
+      <c r="B377" s="8" t="s">
         <v>916</v>
       </c>
       <c r="C377" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D377" s="11" t="s">
+      <c r="D377" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="E377" s="11" t="s">
+      <c r="E377" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F377" s="0" t="n">
+      <c r="F377" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11309,16 +11586,16 @@
       <c r="A378" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="B378" s="10" t="s">
+      <c r="B378" s="8" t="s">
         <v>918</v>
       </c>
       <c r="C378" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E378" s="11" t="s">
+      <c r="E378" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F378" s="0" t="n">
+      <c r="F378" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11326,19 +11603,19 @@
       <c r="A379" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="B379" s="10" t="s">
+      <c r="B379" s="8" t="s">
         <v>920</v>
       </c>
       <c r="C379" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D379" s="11" t="s">
+      <c r="D379" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E379" s="11" t="s">
+      <c r="E379" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F379" s="0" t="n">
+      <c r="F379" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11346,16 +11623,16 @@
       <c r="A380" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B380" s="10" t="s">
+      <c r="B380" s="8" t="s">
         <v>922</v>
       </c>
       <c r="C380" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E380" s="11" t="s">
+      <c r="E380" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F380" s="0" t="n">
+      <c r="F380" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11363,19 +11640,19 @@
       <c r="A381" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B381" s="10" t="s">
+      <c r="B381" s="8" t="s">
         <v>924</v>
       </c>
       <c r="C381" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D381" s="11" t="s">
+      <c r="D381" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="E381" s="11" t="s">
+      <c r="E381" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="F381" s="0" t="n">
+      <c r="F381" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11383,19 +11660,19 @@
       <c r="A382" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="B382" s="10" t="s">
+      <c r="B382" s="8" t="s">
         <v>926</v>
       </c>
       <c r="C382" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D382" s="11" t="s">
+      <c r="D382" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="E382" s="11" t="s">
+      <c r="E382" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="F382" s="0" t="n">
+      <c r="F382" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11403,19 +11680,19 @@
       <c r="A383" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="B383" s="10" t="s">
+      <c r="B383" s="8" t="s">
         <v>928</v>
       </c>
       <c r="C383" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D383" s="11" t="s">
+      <c r="D383" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="E383" s="11" t="s">
+      <c r="E383" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="F383" s="0" t="n">
+      <c r="F383" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11423,39 +11700,39 @@
       <c r="A384" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B384" s="10" t="s">
+      <c r="B384" s="8" t="s">
         <v>930</v>
       </c>
       <c r="C384" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D384" s="11" t="s">
+      <c r="D384" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="E384" s="11" t="s">
+      <c r="E384" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F384" s="0" t="n">
+      <c r="F384" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A385" s="10" t="s">
+      <c r="A385" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="B385" s="10" t="s">
+      <c r="B385" s="8" t="s">
         <v>932</v>
       </c>
       <c r="C385" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D385" s="11" t="s">
+      <c r="D385" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="E385" s="11" t="s">
+      <c r="E385" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="F385" s="0" t="n">
+      <c r="F385" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11463,19 +11740,19 @@
       <c r="A386" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="B386" s="10" t="s">
+      <c r="B386" s="8" t="s">
         <v>934</v>
       </c>
       <c r="C386" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D386" s="11" t="s">
+      <c r="D386" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E386" s="11" t="s">
+      <c r="E386" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="F386" s="0" t="n">
+      <c r="F386" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11483,19 +11760,19 @@
       <c r="A387" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B387" s="10" t="s">
+      <c r="B387" s="8" t="s">
         <v>937</v>
       </c>
       <c r="C387" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D387" s="11" t="s">
+      <c r="D387" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="E387" s="11" t="s">
+      <c r="E387" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="F387" s="0" t="n">
+      <c r="F387" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11503,19 +11780,19 @@
       <c r="A388" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B388" s="10" t="s">
+      <c r="B388" s="8" t="s">
         <v>939</v>
       </c>
       <c r="C388" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D388" s="11" t="s">
+      <c r="D388" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="E388" s="11" t="s">
+      <c r="E388" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="F388" s="0" t="n">
+      <c r="F388" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11523,16 +11800,16 @@
       <c r="A389" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B389" s="10" t="s">
+      <c r="B389" s="8" t="s">
         <v>941</v>
       </c>
       <c r="C389" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E389" s="11" t="s">
+      <c r="E389" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="F389" s="0" t="n">
+      <c r="F389" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11540,19 +11817,19 @@
       <c r="A390" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B390" s="10" t="s">
+      <c r="B390" s="8" t="s">
         <v>943</v>
       </c>
       <c r="C390" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D390" s="11" t="s">
+      <c r="D390" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E390" s="11" t="s">
+      <c r="E390" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F390" s="0" t="n">
+      <c r="F390" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11560,16 +11837,16 @@
       <c r="A391" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B391" s="10" t="s">
+      <c r="B391" s="8" t="s">
         <v>945</v>
       </c>
       <c r="C391" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E391" s="11" t="s">
+      <c r="E391" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F391" s="0" t="n">
+      <c r="F391" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11577,19 +11854,19 @@
       <c r="A392" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B392" s="10" t="s">
+      <c r="B392" s="8" t="s">
         <v>947</v>
       </c>
       <c r="C392" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D392" s="11" t="s">
+      <c r="D392" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E392" s="11" t="s">
+      <c r="E392" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F392" s="0" t="n">
+      <c r="F392" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11597,16 +11874,16 @@
       <c r="A393" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B393" s="10" t="s">
+      <c r="B393" s="8" t="s">
         <v>949</v>
       </c>
       <c r="C393" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E393" s="11" t="s">
+      <c r="E393" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F393" s="0" t="n">
+      <c r="F393" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11614,19 +11891,19 @@
       <c r="A394" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B394" s="10" t="s">
+      <c r="B394" s="8" t="s">
         <v>951</v>
       </c>
       <c r="C394" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D394" s="11" t="s">
+      <c r="D394" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="E394" s="11" t="s">
+      <c r="E394" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="F394" s="0" t="n">
+      <c r="F394" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11634,19 +11911,19 @@
       <c r="A395" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B395" s="10" t="s">
+      <c r="B395" s="8" t="s">
         <v>953</v>
       </c>
       <c r="C395" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D395" s="11" t="s">
+      <c r="D395" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E395" s="11" t="s">
+      <c r="E395" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F395" s="0" t="n">
+      <c r="F395" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11654,19 +11931,19 @@
       <c r="A396" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="B396" s="10" t="s">
+      <c r="B396" s="8" t="s">
         <v>955</v>
       </c>
       <c r="C396" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D396" s="11" t="s">
+      <c r="D396" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="E396" s="11" t="s">
+      <c r="E396" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="F396" s="0" t="n">
+      <c r="F396" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11674,19 +11951,19 @@
       <c r="A397" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B397" s="10" t="s">
+      <c r="B397" s="8" t="s">
         <v>957</v>
       </c>
       <c r="C397" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D397" s="11" t="s">
+      <c r="D397" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E397" s="11" t="s">
+      <c r="E397" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F397" s="0" t="n">
+      <c r="F397" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11694,19 +11971,19 @@
       <c r="A398" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B398" s="10" t="s">
+      <c r="B398" s="8" t="s">
         <v>959</v>
       </c>
       <c r="C398" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D398" s="11" t="s">
+      <c r="D398" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E398" s="11" t="s">
+      <c r="E398" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="F398" s="0" t="n">
+      <c r="F398" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11714,19 +11991,19 @@
       <c r="A399" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B399" s="10" t="s">
+      <c r="B399" s="8" t="s">
         <v>961</v>
       </c>
       <c r="C399" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D399" s="11" t="s">
+      <c r="D399" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="11" t="s">
+      <c r="E399" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="F399" s="0" t="n">
+      <c r="F399" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11734,19 +12011,19 @@
       <c r="A400" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B400" s="10" t="s">
+      <c r="B400" s="8" t="s">
         <v>963</v>
       </c>
       <c r="C400" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D400" s="11" t="s">
+      <c r="D400" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="E400" s="11" t="s">
+      <c r="E400" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F400" s="0" t="n">
+      <c r="F400" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11754,16 +12031,16 @@
       <c r="A401" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="B401" s="10" t="s">
+      <c r="B401" s="8" t="s">
         <v>965</v>
       </c>
       <c r="C401" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E401" s="11" t="s">
+      <c r="E401" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F401" s="0" t="n">
+      <c r="F401" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11771,19 +12048,19 @@
       <c r="A402" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B402" s="10" t="s">
+      <c r="B402" s="8" t="s">
         <v>967</v>
       </c>
       <c r="C402" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D402" s="11" t="s">
+      <c r="D402" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E402" s="11" t="s">
+      <c r="E402" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F402" s="0" t="n">
+      <c r="F402" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11791,19 +12068,19 @@
       <c r="A403" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B403" s="10" t="s">
+      <c r="B403" s="8" t="s">
         <v>969</v>
       </c>
       <c r="C403" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D403" s="11" t="s">
+      <c r="D403" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E403" s="11" t="s">
+      <c r="E403" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F403" s="0" t="n">
+      <c r="F403" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11811,19 +12088,19 @@
       <c r="A404" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B404" s="10" t="s">
+      <c r="B404" s="8" t="s">
         <v>971</v>
       </c>
       <c r="C404" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D404" s="11" t="s">
+      <c r="D404" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E404" s="11" t="s">
+      <c r="E404" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F404" s="0" t="n">
+      <c r="F404" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11831,19 +12108,19 @@
       <c r="A405" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="B405" s="10" t="s">
+      <c r="B405" s="8" t="s">
         <v>973</v>
       </c>
       <c r="C405" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D405" s="11" t="s">
+      <c r="D405" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E405" s="11" t="s">
+      <c r="E405" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F405" s="0" t="n">
+      <c r="F405" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11851,19 +12128,19 @@
       <c r="A406" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B406" s="10" t="s">
+      <c r="B406" s="8" t="s">
         <v>975</v>
       </c>
       <c r="C406" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D406" s="11" t="s">
+      <c r="D406" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="E406" s="11" t="s">
+      <c r="E406" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="F406" s="0" t="n">
+      <c r="F406" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11871,19 +12148,19 @@
       <c r="A407" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B407" s="10" t="s">
+      <c r="B407" s="8" t="s">
         <v>977</v>
       </c>
       <c r="C407" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D407" s="11" t="s">
+      <c r="D407" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E407" s="11" t="s">
+      <c r="E407" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F407" s="0" t="n">
+      <c r="F407" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11891,19 +12168,19 @@
       <c r="A408" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B408" s="10" t="s">
+      <c r="B408" s="8" t="s">
         <v>979</v>
       </c>
       <c r="C408" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D408" s="11" t="s">
+      <c r="D408" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E408" s="11" t="s">
+      <c r="E408" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F408" s="0" t="n">
+      <c r="F408" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11911,16 +12188,16 @@
       <c r="A409" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B409" s="10" t="s">
+      <c r="B409" s="8" t="s">
         <v>981</v>
       </c>
       <c r="C409" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E409" s="11" t="s">
+      <c r="E409" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F409" s="0" t="n">
+      <c r="F409" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11928,19 +12205,19 @@
       <c r="A410" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="B410" s="10" t="s">
+      <c r="B410" s="8" t="s">
         <v>983</v>
       </c>
       <c r="C410" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D410" s="11" t="s">
+      <c r="D410" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="E410" s="11" t="s">
+      <c r="E410" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="F410" s="0" t="n">
+      <c r="F410" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11948,19 +12225,19 @@
       <c r="A411" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B411" s="10" t="s">
+      <c r="B411" s="8" t="s">
         <v>985</v>
       </c>
       <c r="C411" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D411" s="11" t="s">
+      <c r="D411" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E411" s="11" t="s">
+      <c r="E411" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="F411" s="0" t="n">
+      <c r="F411" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11968,19 +12245,19 @@
       <c r="A412" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B412" s="10" t="s">
+      <c r="B412" s="8" t="s">
         <v>987</v>
       </c>
       <c r="C412" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D412" s="11" t="s">
+      <c r="D412" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E412" s="11" t="s">
+      <c r="E412" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F412" s="0" t="n">
+      <c r="F412" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11988,19 +12265,19 @@
       <c r="A413" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="B413" s="10" t="s">
+      <c r="B413" s="8" t="s">
         <v>989</v>
       </c>
       <c r="C413" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D413" s="11" t="s">
+      <c r="D413" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E413" s="11" t="s">
+      <c r="E413" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F413" s="0" t="n">
+      <c r="F413" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12008,19 +12285,19 @@
       <c r="A414" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B414" s="10" t="s">
+      <c r="B414" s="8" t="s">
         <v>991</v>
       </c>
       <c r="C414" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D414" s="11" t="s">
+      <c r="D414" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E414" s="11" t="s">
+      <c r="E414" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F414" s="0" t="n">
+      <c r="F414" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12028,19 +12305,19 @@
       <c r="A415" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B415" s="10" t="s">
+      <c r="B415" s="8" t="s">
         <v>993</v>
       </c>
       <c r="C415" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D415" s="11" t="s">
+      <c r="D415" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E415" s="11" t="s">
+      <c r="E415" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F415" s="0" t="n">
+      <c r="F415" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12048,19 +12325,19 @@
       <c r="A416" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B416" s="10" t="s">
+      <c r="B416" s="8" t="s">
         <v>995</v>
       </c>
       <c r="C416" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D416" s="11" t="s">
+      <c r="D416" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E416" s="11" t="s">
+      <c r="E416" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F416" s="0" t="n">
+      <c r="F416" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12068,19 +12345,19 @@
       <c r="A417" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B417" s="10" t="s">
+      <c r="B417" s="8" t="s">
         <v>997</v>
       </c>
       <c r="C417" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D417" s="11" t="s">
+      <c r="D417" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="E417" s="11" t="s">
+      <c r="E417" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="F417" s="0" t="n">
+      <c r="F417" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12088,16 +12365,16 @@
       <c r="A418" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B418" s="10" t="s">
+      <c r="B418" s="8" t="s">
         <v>999</v>
       </c>
       <c r="C418" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E418" s="11" t="s">
+      <c r="E418" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="F418" s="0" t="n">
+      <c r="F418" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12105,19 +12382,19 @@
       <c r="A419" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B419" s="10" t="s">
+      <c r="B419" s="8" t="s">
         <v>1001</v>
       </c>
       <c r="C419" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D419" s="11" t="s">
+      <c r="D419" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="E419" s="11" t="s">
+      <c r="E419" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F419" s="0" t="n">
+      <c r="F419" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12125,19 +12402,19 @@
       <c r="A420" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B420" s="10" t="s">
+      <c r="B420" s="8" t="s">
         <v>1003</v>
       </c>
       <c r="C420" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D420" s="11" t="s">
+      <c r="D420" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E420" s="11" t="s">
+      <c r="E420" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F420" s="0" t="n">
+      <c r="F420" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12145,19 +12422,19 @@
       <c r="A421" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B421" s="10" t="s">
+      <c r="B421" s="8" t="s">
         <v>1005</v>
       </c>
       <c r="C421" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D421" s="11" t="s">
+      <c r="D421" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E421" s="11" t="s">
+      <c r="E421" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F421" s="0" t="n">
+      <c r="F421" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12165,19 +12442,19 @@
       <c r="A422" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B422" s="10" t="s">
+      <c r="B422" s="8" t="s">
         <v>1007</v>
       </c>
       <c r="C422" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D422" s="11" t="s">
+      <c r="D422" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="E422" s="11" t="s">
+      <c r="E422" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F422" s="0" t="n">
+      <c r="F422" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12185,19 +12462,19 @@
       <c r="A423" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B423" s="10" t="s">
+      <c r="B423" s="8" t="s">
         <v>1009</v>
       </c>
       <c r="C423" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D423" s="11" t="s">
+      <c r="D423" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="E423" s="11" t="s">
+      <c r="E423" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="F423" s="0" t="n">
+      <c r="F423" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12205,19 +12482,19 @@
       <c r="A424" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B424" s="10" t="s">
+      <c r="B424" s="8" t="s">
         <v>1011</v>
       </c>
       <c r="C424" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D424" s="11" t="s">
+      <c r="D424" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E424" s="11" t="s">
+      <c r="E424" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F424" s="0" t="n">
+      <c r="F424" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12225,19 +12502,19 @@
       <c r="A425" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B425" s="10" t="s">
+      <c r="B425" s="8" t="s">
         <v>1013</v>
       </c>
       <c r="C425" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D425" s="11" t="s">
+      <c r="D425" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E425" s="11" t="s">
+      <c r="E425" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F425" s="0" t="n">
+      <c r="F425" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12245,19 +12522,19 @@
       <c r="A426" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B426" s="10" t="s">
+      <c r="B426" s="8" t="s">
         <v>1015</v>
       </c>
       <c r="C426" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D426" s="11" t="s">
+      <c r="D426" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E426" s="11" t="s">
+      <c r="E426" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F426" s="0" t="n">
+      <c r="F426" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12265,19 +12542,19 @@
       <c r="A427" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B427" s="10" t="s">
+      <c r="B427" s="8" t="s">
         <v>1017</v>
       </c>
       <c r="C427" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D427" s="11" t="s">
+      <c r="D427" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E427" s="11" t="s">
+      <c r="E427" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F427" s="0" t="n">
+      <c r="F427" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12285,19 +12562,19 @@
       <c r="A428" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="B428" s="10" t="s">
+      <c r="B428" s="8" t="s">
         <v>1019</v>
       </c>
       <c r="C428" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D428" s="11" t="s">
+      <c r="D428" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E428" s="11" t="s">
+      <c r="E428" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F428" s="0" t="n">
+      <c r="F428" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12305,16 +12582,16 @@
       <c r="A429" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B429" s="10" t="s">
+      <c r="B429" s="8" t="s">
         <v>1021</v>
       </c>
       <c r="C429" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E429" s="11" t="s">
+      <c r="E429" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F429" s="0" t="n">
+      <c r="F429" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12322,19 +12599,19 @@
       <c r="A430" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B430" s="10" t="s">
+      <c r="B430" s="8" t="s">
         <v>1023</v>
       </c>
       <c r="C430" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D430" s="11" t="s">
+      <c r="D430" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E430" s="11" t="s">
+      <c r="E430" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F430" s="0" t="n">
+      <c r="F430" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12342,19 +12619,19 @@
       <c r="A431" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="B431" s="10" t="s">
+      <c r="B431" s="8" t="s">
         <v>1025</v>
       </c>
       <c r="C431" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D431" s="11" t="s">
+      <c r="D431" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E431" s="11" t="s">
+      <c r="E431" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F431" s="0" t="n">
+      <c r="F431" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12362,19 +12639,19 @@
       <c r="A432" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B432" s="10" t="s">
+      <c r="B432" s="8" t="s">
         <v>1027</v>
       </c>
       <c r="C432" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D432" s="11" t="s">
+      <c r="D432" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="E432" s="11" t="s">
+      <c r="E432" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="F432" s="0" t="n">
+      <c r="F432" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12382,19 +12659,19 @@
       <c r="A433" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B433" s="10" t="s">
+      <c r="B433" s="8" t="s">
         <v>1029</v>
       </c>
       <c r="C433" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D433" s="11" t="s">
+      <c r="D433" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="E433" s="11" t="s">
+      <c r="E433" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="F433" s="0" t="n">
+      <c r="F433" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12402,19 +12679,19 @@
       <c r="A434" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B434" s="10" t="s">
+      <c r="B434" s="8" t="s">
         <v>1031</v>
       </c>
       <c r="C434" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D434" s="11" t="s">
+      <c r="D434" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E434" s="11" t="s">
+      <c r="E434" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F434" s="0" t="n">
+      <c r="F434" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12422,19 +12699,19 @@
       <c r="A435" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="B435" s="10" t="s">
+      <c r="B435" s="8" t="s">
         <v>1033</v>
       </c>
       <c r="C435" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D435" s="11" t="s">
+      <c r="D435" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E435" s="11" t="s">
+      <c r="E435" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F435" s="0" t="n">
+      <c r="F435" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12442,19 +12719,19 @@
       <c r="A436" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B436" s="10" t="s">
+      <c r="B436" s="8" t="s">
         <v>1035</v>
       </c>
       <c r="C436" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D436" s="11" t="s">
+      <c r="D436" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="E436" s="11" t="s">
+      <c r="E436" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="F436" s="0" t="n">
+      <c r="F436" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12462,16 +12739,16 @@
       <c r="A437" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="B437" s="10" t="s">
+      <c r="B437" s="8" t="s">
         <v>1037</v>
       </c>
       <c r="C437" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E437" s="11" t="s">
+      <c r="E437" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F437" s="0" t="n">
+      <c r="F437" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12479,19 +12756,19 @@
       <c r="A438" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B438" s="10" t="s">
+      <c r="B438" s="8" t="s">
         <v>1039</v>
       </c>
       <c r="C438" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D438" s="11" t="s">
+      <c r="D438" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E438" s="11" t="s">
+      <c r="E438" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F438" s="0" t="n">
+      <c r="F438" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12499,19 +12776,19 @@
       <c r="A439" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B439" s="10" t="s">
+      <c r="B439" s="8" t="s">
         <v>1041</v>
       </c>
       <c r="C439" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D439" s="11" t="s">
+      <c r="D439" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E439" s="11" t="s">
+      <c r="E439" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F439" s="0" t="n">
+      <c r="F439" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12519,19 +12796,19 @@
       <c r="A440" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B440" s="10" t="s">
+      <c r="B440" s="8" t="s">
         <v>1043</v>
       </c>
       <c r="C440" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="D440" s="11" t="s">
+      <c r="D440" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E440" s="11" t="s">
+      <c r="E440" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F440" s="0" t="n">
+      <c r="F440" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12539,19 +12816,878 @@
       <c r="A441" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B441" s="10" t="s">
+      <c r="B441" s="8" t="s">
         <v>1045</v>
       </c>
       <c r="C441" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D441" s="11" t="s">
+      <c r="D441" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E441" s="11" t="s">
+      <c r="E441" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F441" s="0" t="n">
+      <c r="F441" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A442" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B442" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C442" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D442" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E442" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F442" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A443" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B443" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C443" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E443" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F443" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A444" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B444" s="8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C444" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D444" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E444" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F444" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A445" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B445" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C445" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D445" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E445" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F445" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A446" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B446" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C446" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D446" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="E446" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F446" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A447" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C447" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D447" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E447" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F447" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A448" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B448" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C448" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D448" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E448" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F448" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A449" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B449" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C449" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D449" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E449" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F449" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A450" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B450" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C450" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D450" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E450" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F450" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A451" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B451" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C451" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D451" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E451" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F451" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A452" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B452" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C452" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D452" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E452" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F452" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A453" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B453" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C453" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D453" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E453" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F453" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A454" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B454" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C454" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D454" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E454" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F454" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A455" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B455" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E455" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F455" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A456" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B456" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C456" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D456" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E456" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F456" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A457" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B457" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C457" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D457" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E457" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F457" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A458" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B458" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C458" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D458" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E458" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F458" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A459" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B459" s="10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C459" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D459" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E459" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F459" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A460" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B460" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C460" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D460" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E460" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F460" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A461" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B461" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C461" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D461" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="E461" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F461" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A462" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B462" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C462" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D462" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E462" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="F462" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A463" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B463" s="10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C463" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D463" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E463" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F463" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A464" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B464" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C464" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E464" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F464" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A465" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B465" s="10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C465" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D465" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="E465" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F465" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B466" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C466" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D466" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E466" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F466" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A467" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B467" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C467" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D467" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E467" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F467" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A468" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B468" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C468" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E468" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F468" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A469" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B469" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C469" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D469" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E469" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F469" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A470" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B470" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C470" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D470" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E470" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F470" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A471" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B471" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C471" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D471" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E471" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="F471" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A472" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B472" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C472" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E472" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F472" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B473" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C473" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E473" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="F473" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B474" s="10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C474" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D474" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E474" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F474" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A475" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B475" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C475" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D475" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E475" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F475" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A476" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B476" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C476" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E476" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F476" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A477" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B477" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C477" s="12" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D477" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E477" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F477" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A478" s="10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B478" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C478" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="D478" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E478" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F478" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A479" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B479" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C479" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D479" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E479" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F479" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A480" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B480" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C480" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D480" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="E480" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F480" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A481" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B481" s="10" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C481" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D481" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="E481" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="F481" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A482" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B482" s="10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C482" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D482" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E482" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F482" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A483" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B483" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C483" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D483" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E483" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F483" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A484" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B484" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C484" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D484" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E484" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="F484" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A485" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B485" s="10" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C485" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D485" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E485" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F485" s="0" t="n">
         <v>1</v>
       </c>
     </row>
